--- a/config_debug/shoping_config_revise.xlsx
+++ b/config_debug/shoping_config_revise.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="533"/>
   </bookViews>
   <sheets>
     <sheet name="tj|推荐配置" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>0,1</t>
-  </si>
-  <si>
-    <t>"gift_bag","yk","jk","gift_bag"</t>
   </si>
   <si>
     <t>2,3</t>
@@ -712,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -771,10 +768,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -794,13 +791,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -820,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -846,13 +843,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -872,13 +869,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
@@ -892,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -901,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -918,19 +915,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -944,19 +941,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -970,19 +967,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -996,19 +993,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -1071,13 +1068,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1097,16 +1094,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="10"/>
     </row>
@@ -1121,19 +1118,19 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1147,19 +1144,19 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1170,19 +1167,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -1194,22 +1191,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1220,22 +1217,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1249,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1279,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1291,10 +1288,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1308,26 +1305,26 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="7">
         <v>0</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1338,29 +1335,29 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
